--- a/ECas95's VSP v4 - Magis Impius.xlsx
+++ b/ECas95's VSP v4 - Magis Impius.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROGRAM\STEPF2_DEBUG\Songs\03-VANITY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\PROGRAM\STEPF2_DEBUG\Songs\00-VANITY R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB1F95-1A3A-4924-93D7-8F4FF9FC718F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE1A5FC0-A0AE-4A6B-A287-73585BFE0416}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{02B95196-39AC-4D8F-A970-84F3EF484ADF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="497">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1234" uniqueCount="497">
   <si>
     <t>#</t>
   </si>
@@ -1708,7 +1708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1805,27 +1805,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1849,6 +1828,30 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2166,8 +2169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E09B935-A9C1-4176-A7C6-056ADAD32FE3}">
   <dimension ref="A1:I283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="111" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2185,17 +2188,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="47" t="s">
         <v>493</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2251,7 +2254,7 @@
       <c r="H3" s="5">
         <v>17</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="50" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2281,7 +2284,7 @@
       <c r="H4" s="5">
         <v>15</v>
       </c>
-      <c r="I4" s="42"/>
+      <c r="I4" s="50"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
@@ -2309,7 +2312,7 @@
       <c r="H5" s="5">
         <v>17</v>
       </c>
-      <c r="I5" s="42"/>
+      <c r="I5" s="50"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
@@ -2337,7 +2340,7 @@
       <c r="H6" s="5">
         <v>18</v>
       </c>
-      <c r="I6" s="42"/>
+      <c r="I6" s="50"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
@@ -2365,7 +2368,7 @@
       <c r="H7" s="5">
         <v>20</v>
       </c>
-      <c r="I7" s="42"/>
+      <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
@@ -2393,7 +2396,7 @@
       <c r="H8" s="5">
         <v>17</v>
       </c>
-      <c r="I8" s="42"/>
+      <c r="I8" s="50"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
@@ -2421,7 +2424,7 @@
       <c r="H9" s="5">
         <v>18</v>
       </c>
-      <c r="I9" s="42"/>
+      <c r="I9" s="50"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
@@ -2449,7 +2452,7 @@
       <c r="H10" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="I10" s="42"/>
+      <c r="I10" s="50"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
@@ -2477,7 +2480,7 @@
       <c r="H11" s="5">
         <v>18</v>
       </c>
-      <c r="I11" s="42"/>
+      <c r="I11" s="50"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
@@ -2505,7 +2508,7 @@
       <c r="H12" s="5">
         <v>19</v>
       </c>
-      <c r="I12" s="42"/>
+      <c r="I12" s="50"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
@@ -2533,7 +2536,7 @@
       <c r="H13" s="5">
         <v>20</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="50"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
@@ -2561,7 +2564,7 @@
       <c r="H14" s="5">
         <v>17</v>
       </c>
-      <c r="I14" s="42"/>
+      <c r="I14" s="50"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
@@ -2589,7 +2592,7 @@
       <c r="H15" s="5">
         <v>18</v>
       </c>
-      <c r="I15" s="42"/>
+      <c r="I15" s="50"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
@@ -2617,7 +2620,7 @@
       <c r="H16" s="5">
         <v>18</v>
       </c>
-      <c r="I16" s="42"/>
+      <c r="I16" s="50"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
@@ -2645,7 +2648,7 @@
       <c r="H17" s="5">
         <v>17</v>
       </c>
-      <c r="I17" s="42"/>
+      <c r="I17" s="50"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
@@ -2673,7 +2676,7 @@
       <c r="H18" s="5">
         <v>21</v>
       </c>
-      <c r="I18" s="42"/>
+      <c r="I18" s="50"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
@@ -2701,7 +2704,7 @@
       <c r="H19" s="5">
         <v>20</v>
       </c>
-      <c r="I19" s="42"/>
+      <c r="I19" s="50"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
@@ -2729,7 +2732,7 @@
       <c r="H20" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="I20" s="42"/>
+      <c r="I20" s="50"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
@@ -2757,7 +2760,7 @@
       <c r="H21" s="5">
         <v>16</v>
       </c>
-      <c r="I21" s="42"/>
+      <c r="I21" s="50"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="20">
@@ -2785,7 +2788,7 @@
       <c r="H22" s="5">
         <v>21</v>
       </c>
-      <c r="I22" s="42"/>
+      <c r="I22" s="50"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="20">
@@ -2813,7 +2816,7 @@
       <c r="H23" s="19">
         <v>22</v>
       </c>
-      <c r="I23" s="43" t="s">
+      <c r="I23" s="51" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2843,7 +2846,7 @@
       <c r="H24" s="19">
         <v>18</v>
       </c>
-      <c r="I24" s="43"/>
+      <c r="I24" s="51"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="20">
@@ -2871,7 +2874,7 @@
       <c r="H25" s="19">
         <v>16</v>
       </c>
-      <c r="I25" s="43"/>
+      <c r="I25" s="51"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="20">
@@ -2899,7 +2902,7 @@
       <c r="H26" s="19">
         <v>19</v>
       </c>
-      <c r="I26" s="43"/>
+      <c r="I26" s="51"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="20">
@@ -2927,7 +2930,7 @@
       <c r="H27" s="19">
         <v>19</v>
       </c>
-      <c r="I27" s="43"/>
+      <c r="I27" s="51"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="20">
@@ -2955,7 +2958,7 @@
       <c r="H28" s="19">
         <v>18</v>
       </c>
-      <c r="I28" s="43"/>
+      <c r="I28" s="51"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="20">
@@ -2983,7 +2986,7 @@
       <c r="H29" s="19">
         <v>17</v>
       </c>
-      <c r="I29" s="43"/>
+      <c r="I29" s="51"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="20">
@@ -3011,7 +3014,7 @@
       <c r="H30" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="I30" s="43"/>
+      <c r="I30" s="51"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="20">
@@ -3039,7 +3042,7 @@
       <c r="H31" s="19">
         <v>18</v>
       </c>
-      <c r="I31" s="43"/>
+      <c r="I31" s="51"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="20">
@@ -3067,7 +3070,7 @@
       <c r="H32" s="19">
         <v>19</v>
       </c>
-      <c r="I32" s="43"/>
+      <c r="I32" s="51"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="20">
@@ -3095,7 +3098,7 @@
       <c r="H33" s="19">
         <v>16</v>
       </c>
-      <c r="I33" s="43"/>
+      <c r="I33" s="51"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="20">
@@ -3123,7 +3126,7 @@
       <c r="H34" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I34" s="43"/>
+      <c r="I34" s="51"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="20">
@@ -3151,7 +3154,7 @@
       <c r="H35" s="19">
         <v>18</v>
       </c>
-      <c r="I35" s="43"/>
+      <c r="I35" s="51"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="20">
@@ -3179,7 +3182,7 @@
       <c r="H36" s="19">
         <v>17</v>
       </c>
-      <c r="I36" s="43"/>
+      <c r="I36" s="51"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="20">
@@ -3207,7 +3210,7 @@
       <c r="H37" s="19">
         <v>18</v>
       </c>
-      <c r="I37" s="43"/>
+      <c r="I37" s="51"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="20">
@@ -3235,7 +3238,7 @@
       <c r="H38" s="19">
         <v>18</v>
       </c>
-      <c r="I38" s="43"/>
+      <c r="I38" s="51"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="20">
@@ -3263,7 +3266,7 @@
       <c r="H39" s="19">
         <v>18</v>
       </c>
-      <c r="I39" s="43"/>
+      <c r="I39" s="51"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="20">
@@ -3291,7 +3294,7 @@
       <c r="H40" s="19">
         <v>18</v>
       </c>
-      <c r="I40" s="43"/>
+      <c r="I40" s="51"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="20">
@@ -3319,7 +3322,7 @@
       <c r="H41" s="19">
         <v>17</v>
       </c>
-      <c r="I41" s="43"/>
+      <c r="I41" s="51"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="20">
@@ -3347,7 +3350,7 @@
       <c r="H42" s="8">
         <v>20</v>
       </c>
-      <c r="I42" s="44" t="s">
+      <c r="I42" s="52" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3377,7 +3380,7 @@
       <c r="H43" s="8">
         <v>20</v>
       </c>
-      <c r="I43" s="44"/>
+      <c r="I43" s="52"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="20">
@@ -3405,7 +3408,7 @@
       <c r="H44" s="8">
         <v>21</v>
       </c>
-      <c r="I44" s="44"/>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="20">
@@ -3433,7 +3436,7 @@
       <c r="H45" s="8">
         <v>18</v>
       </c>
-      <c r="I45" s="44"/>
+      <c r="I45" s="52"/>
     </row>
     <row r="46" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20">
@@ -3461,7 +3464,7 @@
       <c r="H46" s="8">
         <v>19</v>
       </c>
-      <c r="I46" s="44"/>
+      <c r="I46" s="52"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="20">
@@ -3489,7 +3492,7 @@
       <c r="H47" s="8">
         <v>19</v>
       </c>
-      <c r="I47" s="44"/>
+      <c r="I47" s="52"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="20">
@@ -3517,7 +3520,7 @@
       <c r="H48" s="8">
         <v>19</v>
       </c>
-      <c r="I48" s="44"/>
+      <c r="I48" s="52"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="20">
@@ -3545,7 +3548,7 @@
       <c r="H49" s="8">
         <v>21</v>
       </c>
-      <c r="I49" s="44"/>
+      <c r="I49" s="52"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="20">
@@ -3573,7 +3576,7 @@
       <c r="H50" s="8">
         <v>19</v>
       </c>
-      <c r="I50" s="44"/>
+      <c r="I50" s="52"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="20">
@@ -3601,7 +3604,7 @@
       <c r="H51" s="11">
         <v>21</v>
       </c>
-      <c r="I51" s="40" t="s">
+      <c r="I51" s="48" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3631,7 +3634,7 @@
       <c r="H52" s="11">
         <v>20</v>
       </c>
-      <c r="I52" s="40"/>
+      <c r="I52" s="48"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="20">
@@ -3659,7 +3662,7 @@
       <c r="H53" s="11">
         <v>24</v>
       </c>
-      <c r="I53" s="40"/>
+      <c r="I53" s="48"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="20">
@@ -3687,7 +3690,7 @@
       <c r="H54" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="I54" s="40"/>
+      <c r="I54" s="48"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="20">
@@ -3715,7 +3718,7 @@
       <c r="H55" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="I55" s="40"/>
+      <c r="I55" s="48"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="20">
@@ -3743,7 +3746,7 @@
       <c r="H56" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="I56" s="40"/>
+      <c r="I56" s="48"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="20">
@@ -3771,7 +3774,7 @@
       <c r="H57" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="I57" s="40"/>
+      <c r="I57" s="48"/>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="20">
@@ -3799,7 +3802,7 @@
       <c r="H58" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="I58" s="40"/>
+      <c r="I58" s="48"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="20">
@@ -3827,7 +3830,7 @@
       <c r="H59" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="I59" s="40"/>
+      <c r="I59" s="48"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="20">
@@ -3855,7 +3858,7 @@
       <c r="H60" s="2">
         <v>19</v>
       </c>
-      <c r="I60" s="41">
+      <c r="I60" s="49">
         <v>3</v>
       </c>
     </row>
@@ -3885,7 +3888,7 @@
       <c r="H61" s="2">
         <v>24</v>
       </c>
-      <c r="I61" s="41"/>
+      <c r="I61" s="49"/>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="20">
@@ -3913,7 +3916,7 @@
       <c r="H62" s="2">
         <v>17</v>
       </c>
-      <c r="I62" s="41"/>
+      <c r="I62" s="49"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="20">
@@ -3941,7 +3944,7 @@
       <c r="H63" s="2">
         <v>21</v>
       </c>
-      <c r="I63" s="41"/>
+      <c r="I63" s="49"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="20">
@@ -3969,7 +3972,7 @@
       <c r="H64" s="2">
         <v>19</v>
       </c>
-      <c r="I64" s="41"/>
+      <c r="I64" s="49"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="20">
@@ -3997,7 +4000,7 @@
       <c r="H65" s="2">
         <v>24</v>
       </c>
-      <c r="I65" s="41"/>
+      <c r="I65" s="49"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="20">
@@ -4025,7 +4028,7 @@
       <c r="H66" s="2">
         <v>20</v>
       </c>
-      <c r="I66" s="41"/>
+      <c r="I66" s="49"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="20">
@@ -4053,7 +4056,7 @@
       <c r="H67" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I67" s="41"/>
+      <c r="I67" s="49"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="20">
@@ -4081,7 +4084,7 @@
       <c r="H68" s="2">
         <v>19</v>
       </c>
-      <c r="I68" s="41"/>
+      <c r="I68" s="49"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="20">
@@ -4109,7 +4112,7 @@
       <c r="H69" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I69" s="41"/>
+      <c r="I69" s="49"/>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="20">
@@ -4137,7 +4140,7 @@
       <c r="H70" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="I70" s="41"/>
+      <c r="I70" s="49"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="20">
@@ -4165,7 +4168,7 @@
       <c r="H71" s="2">
         <v>19</v>
       </c>
-      <c r="I71" s="41"/>
+      <c r="I71" s="49"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="20">
@@ -4193,7 +4196,7 @@
       <c r="H72" s="2">
         <v>20</v>
       </c>
-      <c r="I72" s="41"/>
+      <c r="I72" s="49"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="20">
@@ -4221,7 +4224,7 @@
       <c r="H73" s="2">
         <v>19</v>
       </c>
-      <c r="I73" s="41"/>
+      <c r="I73" s="49"/>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="20">
@@ -4247,7 +4250,7 @@
       <c r="H74" s="2">
         <v>18</v>
       </c>
-      <c r="I74" s="41"/>
+      <c r="I74" s="49"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="20">
@@ -4275,7 +4278,7 @@
       <c r="H75" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="I75" s="41"/>
+      <c r="I75" s="49"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="20">
@@ -4303,7 +4306,7 @@
       <c r="H76" s="2">
         <v>25</v>
       </c>
-      <c r="I76" s="41"/>
+      <c r="I76" s="49"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="20">
@@ -4331,7 +4334,7 @@
       <c r="H77" s="2">
         <v>19</v>
       </c>
-      <c r="I77" s="41"/>
+      <c r="I77" s="49"/>
     </row>
     <row r="78" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="20">
@@ -4359,7 +4362,7 @@
       <c r="H78" s="34">
         <v>21</v>
       </c>
-      <c r="I78" s="38" t="s">
+      <c r="I78" s="46" t="s">
         <v>176</v>
       </c>
     </row>
@@ -4389,7 +4392,7 @@
       <c r="H79" s="34">
         <v>20</v>
       </c>
-      <c r="I79" s="38"/>
+      <c r="I79" s="46"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="20">
@@ -4417,7 +4420,7 @@
       <c r="H80" s="34">
         <v>16</v>
       </c>
-      <c r="I80" s="38"/>
+      <c r="I80" s="46"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="20">
@@ -4445,7 +4448,7 @@
       <c r="H81" s="34">
         <v>18</v>
       </c>
-      <c r="I81" s="38"/>
+      <c r="I81" s="46"/>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="20">
@@ -4473,7 +4476,7 @@
       <c r="H82" s="34">
         <v>18</v>
       </c>
-      <c r="I82" s="38"/>
+      <c r="I82" s="46"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="20">
@@ -4501,7 +4504,7 @@
       <c r="H83" s="34">
         <v>19</v>
       </c>
-      <c r="I83" s="38"/>
+      <c r="I83" s="46"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="20">
@@ -4529,7 +4532,7 @@
       <c r="H84" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I84" s="38"/>
+      <c r="I84" s="46"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="20">
@@ -4557,7 +4560,7 @@
       <c r="H85" s="34">
         <v>18</v>
       </c>
-      <c r="I85" s="38"/>
+      <c r="I85" s="46"/>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="20">
@@ -4585,7 +4588,7 @@
       <c r="H86" s="34">
         <v>21</v>
       </c>
-      <c r="I86" s="38"/>
+      <c r="I86" s="46"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="20">
@@ -4613,7 +4616,7 @@
       <c r="H87" s="34">
         <v>20</v>
       </c>
-      <c r="I87" s="38"/>
+      <c r="I87" s="46"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="20">
@@ -4641,7 +4644,7 @@
       <c r="H88" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I88" s="38"/>
+      <c r="I88" s="46"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="20">
@@ -4669,7 +4672,7 @@
       <c r="H89" s="34">
         <v>22</v>
       </c>
-      <c r="I89" s="38"/>
+      <c r="I89" s="46"/>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="20">
@@ -4697,7 +4700,7 @@
       <c r="H90" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I90" s="38"/>
+      <c r="I90" s="46"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="20">
@@ -4725,7 +4728,7 @@
       <c r="H91" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="I91" s="38"/>
+      <c r="I91" s="46"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="20">
@@ -4753,7 +4756,7 @@
       <c r="H92" s="35" t="s">
         <v>496</v>
       </c>
-      <c r="I92" s="45">
+      <c r="I92" s="38">
         <v>3.5</v>
       </c>
     </row>
@@ -4783,7 +4786,7 @@
       <c r="H93" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I93" s="46"/>
+      <c r="I93" s="39"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="20">
@@ -4811,7 +4814,7 @@
       <c r="H94" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I94" s="46"/>
+      <c r="I94" s="39"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="20">
@@ -4839,7 +4842,7 @@
       <c r="H95" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I95" s="46"/>
+      <c r="I95" s="39"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="20">
@@ -4867,7 +4870,7 @@
       <c r="H96" s="35">
         <v>22</v>
       </c>
-      <c r="I96" s="46"/>
+      <c r="I96" s="39"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="20">
@@ -4895,7 +4898,7 @@
       <c r="H97" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I97" s="46"/>
+      <c r="I97" s="39"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="20">
@@ -4923,7 +4926,7 @@
       <c r="H98" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I98" s="46"/>
+      <c r="I98" s="39"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="20">
@@ -4951,7 +4954,7 @@
       <c r="H99" s="35">
         <v>18</v>
       </c>
-      <c r="I99" s="46"/>
+      <c r="I99" s="39"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="20">
@@ -4979,7 +4982,7 @@
       <c r="H100" s="35">
         <v>19</v>
       </c>
-      <c r="I100" s="46"/>
+      <c r="I100" s="39"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="20">
@@ -5007,7 +5010,7 @@
       <c r="H101" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I101" s="46"/>
+      <c r="I101" s="39"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="20">
@@ -5035,7 +5038,7 @@
       <c r="H102" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I102" s="46"/>
+      <c r="I102" s="39"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="20">
@@ -5063,7 +5066,7 @@
       <c r="H103" s="35">
         <v>20</v>
       </c>
-      <c r="I103" s="46"/>
+      <c r="I103" s="39"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="20">
@@ -5091,7 +5094,7 @@
       <c r="H104" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I104" s="46"/>
+      <c r="I104" s="39"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="20">
@@ -5119,7 +5122,7 @@
       <c r="H105" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I105" s="46"/>
+      <c r="I105" s="39"/>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="20">
@@ -5147,7 +5150,7 @@
       <c r="H106" s="35">
         <v>22</v>
       </c>
-      <c r="I106" s="46"/>
+      <c r="I106" s="39"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="20">
@@ -5175,7 +5178,7 @@
       <c r="H107" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I107" s="46"/>
+      <c r="I107" s="39"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="20">
@@ -5203,7 +5206,7 @@
       <c r="H108" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I108" s="46"/>
+      <c r="I108" s="39"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="20">
@@ -5231,7 +5234,7 @@
       <c r="H109" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I109" s="46"/>
+      <c r="I109" s="39"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="20">
@@ -5259,7 +5262,7 @@
       <c r="H110" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I110" s="46"/>
+      <c r="I110" s="39"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="20">
@@ -5287,7 +5290,7 @@
       <c r="H111" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I111" s="46"/>
+      <c r="I111" s="39"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="20">
@@ -5315,7 +5318,7 @@
       <c r="H112" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I112" s="46"/>
+      <c r="I112" s="39"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="20">
@@ -5343,7 +5346,7 @@
       <c r="H113" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I113" s="46"/>
+      <c r="I113" s="39"/>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="20">
@@ -5371,7 +5374,7 @@
       <c r="H114" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I114" s="46"/>
+      <c r="I114" s="39"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="20">
@@ -5399,7 +5402,7 @@
       <c r="H115" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I115" s="46"/>
+      <c r="I115" s="39"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="20">
@@ -5427,7 +5430,7 @@
       <c r="H116" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I116" s="46"/>
+      <c r="I116" s="39"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="20">
@@ -5455,7 +5458,7 @@
       <c r="H117" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I117" s="46"/>
+      <c r="I117" s="39"/>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="20">
@@ -5483,7 +5486,7 @@
       <c r="H118" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I118" s="46"/>
+      <c r="I118" s="39"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="20">
@@ -5511,7 +5514,7 @@
       <c r="H119" s="35">
         <v>21</v>
       </c>
-      <c r="I119" s="46"/>
+      <c r="I119" s="39"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="20">
@@ -5539,7 +5542,7 @@
       <c r="H120" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I120" s="46"/>
+      <c r="I120" s="39"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="20">
@@ -5567,7 +5570,7 @@
       <c r="H121" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I121" s="46"/>
+      <c r="I121" s="39"/>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="20">
@@ -5595,7 +5598,7 @@
       <c r="H122" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I122" s="46"/>
+      <c r="I122" s="39"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="20">
@@ -5623,7 +5626,7 @@
       <c r="H123" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I123" s="46"/>
+      <c r="I123" s="39"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="20">
@@ -5651,7 +5654,7 @@
       <c r="H124" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I124" s="46"/>
+      <c r="I124" s="39"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="20">
@@ -5679,7 +5682,7 @@
       <c r="H125" s="35" t="s">
         <v>495</v>
       </c>
-      <c r="I125" s="46"/>
+      <c r="I125" s="39"/>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="20">
@@ -5707,7 +5710,7 @@
       <c r="H126" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I126" s="46"/>
+      <c r="I126" s="39"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="20">
@@ -5735,7 +5738,7 @@
       <c r="H127" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I127" s="46"/>
+      <c r="I127" s="39"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" s="20">
@@ -5763,7 +5766,7 @@
       <c r="H128" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="I128" s="47"/>
+      <c r="I128" s="40"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" s="20">
@@ -5791,7 +5794,7 @@
       <c r="H129" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I129" s="52" t="s">
+      <c r="I129" s="45" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5818,10 +5821,10 @@
       <c r="G130" s="36">
         <v>18</v>
       </c>
-      <c r="H130" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="I130" s="52"/>
+      <c r="H130" s="36">
+        <v>20</v>
+      </c>
+      <c r="I130" s="45"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" s="20">
@@ -5849,7 +5852,7 @@
       <c r="H131" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I131" s="52"/>
+      <c r="I131" s="45"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" s="20">
@@ -5874,10 +5877,10 @@
       <c r="G132" s="36">
         <v>21</v>
       </c>
-      <c r="H132" s="36" t="s">
-        <v>494</v>
-      </c>
-      <c r="I132" s="52"/>
+      <c r="H132" s="36">
+        <v>22</v>
+      </c>
+      <c r="I132" s="45"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" s="20">
@@ -5902,10 +5905,10 @@
       <c r="G133" s="36">
         <v>20</v>
       </c>
-      <c r="H133" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="I133" s="52"/>
+      <c r="H133" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="I133" s="45"/>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" s="20">
@@ -5933,7 +5936,7 @@
       <c r="H134" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I134" s="52"/>
+      <c r="I134" s="45"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" s="20">
@@ -5961,7 +5964,7 @@
       <c r="H135" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I135" s="52"/>
+      <c r="I135" s="45"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" s="20">
@@ -5989,7 +5992,7 @@
       <c r="H136" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="I136" s="52"/>
+      <c r="I136" s="45"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" s="20">
@@ -6017,7 +6020,7 @@
       <c r="H137" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I137" s="52"/>
+      <c r="I137" s="45"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" s="20">
@@ -6045,7 +6048,7 @@
       <c r="H138" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I138" s="52"/>
+      <c r="I138" s="45"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" s="20">
@@ -6073,7 +6076,7 @@
       <c r="H139" s="36" t="s">
         <v>494</v>
       </c>
-      <c r="I139" s="52"/>
+      <c r="I139" s="45"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" s="20">
@@ -6101,7 +6104,7 @@
       <c r="H140" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I140" s="52"/>
+      <c r="I140" s="45"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" s="20">
@@ -6129,7 +6132,7 @@
       <c r="H141" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I141" s="52"/>
+      <c r="I141" s="45"/>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" s="20">
@@ -6157,7 +6160,7 @@
       <c r="H142" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I142" s="52"/>
+      <c r="I142" s="45"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" s="20">
@@ -6185,7 +6188,7 @@
       <c r="H143" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I143" s="52"/>
+      <c r="I143" s="45"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" s="20">
@@ -6213,7 +6216,7 @@
       <c r="H144" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I144" s="52"/>
+      <c r="I144" s="45"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" s="20">
@@ -6241,7 +6244,7 @@
       <c r="H145" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I145" s="52"/>
+      <c r="I145" s="45"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" s="20">
@@ -6269,7 +6272,7 @@
       <c r="H146" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I146" s="52"/>
+      <c r="I146" s="45"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" s="20">
@@ -6297,7 +6300,7 @@
       <c r="H147" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I147" s="52"/>
+      <c r="I147" s="45"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" s="20">
@@ -6325,7 +6328,7 @@
       <c r="H148" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I148" s="52"/>
+      <c r="I148" s="45"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" s="20">
@@ -6353,7 +6356,7 @@
       <c r="H149" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I149" s="52"/>
+      <c r="I149" s="45"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" s="20">
@@ -6381,7 +6384,7 @@
       <c r="H150" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="I150" s="52"/>
+      <c r="I150" s="45"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" s="20">
@@ -6409,7 +6412,7 @@
       <c r="H151" s="36">
         <v>19</v>
       </c>
-      <c r="I151" s="52"/>
+      <c r="I151" s="45"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" s="20">
@@ -6437,7 +6440,7 @@
       <c r="H152" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I152" s="51">
+      <c r="I152" s="44">
         <v>4</v>
       </c>
     </row>
@@ -6467,7 +6470,7 @@
       <c r="H153" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I153" s="51"/>
+      <c r="I153" s="44"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" s="20">
@@ -6495,7 +6498,7 @@
       <c r="H154" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I154" s="51"/>
+      <c r="I154" s="44"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" s="20">
@@ -6523,7 +6526,7 @@
       <c r="H155" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I155" s="51"/>
+      <c r="I155" s="44"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" s="20">
@@ -6551,7 +6554,7 @@
       <c r="H156" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I156" s="51"/>
+      <c r="I156" s="44"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" s="20">
@@ -6579,7 +6582,7 @@
       <c r="H157" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I157" s="51"/>
+      <c r="I157" s="44"/>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" s="20">
@@ -6607,7 +6610,7 @@
       <c r="H158" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I158" s="51"/>
+      <c r="I158" s="44"/>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" s="20">
@@ -6635,7 +6638,7 @@
       <c r="H159" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I159" s="51"/>
+      <c r="I159" s="44"/>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" s="20">
@@ -6663,7 +6666,7 @@
       <c r="H160" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I160" s="51"/>
+      <c r="I160" s="44"/>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" s="20">
@@ -6691,7 +6694,7 @@
       <c r="H161" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I161" s="51"/>
+      <c r="I161" s="44"/>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" s="20">
@@ -6719,7 +6722,7 @@
       <c r="H162" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I162" s="51"/>
+      <c r="I162" s="44"/>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" s="20">
@@ -6747,7 +6750,7 @@
       <c r="H163" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I163" s="51"/>
+      <c r="I163" s="44"/>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" s="20">
@@ -6775,7 +6778,7 @@
       <c r="H164" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I164" s="51"/>
+      <c r="I164" s="44"/>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" s="20">
@@ -6803,7 +6806,7 @@
       <c r="H165" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I165" s="51"/>
+      <c r="I165" s="44"/>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" s="20">
@@ -6831,7 +6834,7 @@
       <c r="H166" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I166" s="51"/>
+      <c r="I166" s="44"/>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" s="20">
@@ -6859,7 +6862,7 @@
       <c r="H167" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I167" s="51"/>
+      <c r="I167" s="44"/>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" s="20">
@@ -6887,7 +6890,7 @@
       <c r="H168" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I168" s="51"/>
+      <c r="I168" s="44"/>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" s="20">
@@ -6915,7 +6918,7 @@
       <c r="H169" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I169" s="51"/>
+      <c r="I169" s="44"/>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" s="20">
@@ -6943,7 +6946,7 @@
       <c r="H170" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I170" s="51"/>
+      <c r="I170" s="44"/>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" s="20">
@@ -6971,7 +6974,7 @@
       <c r="H171" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I171" s="51"/>
+      <c r="I171" s="44"/>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" s="20">
@@ -6999,7 +7002,7 @@
       <c r="H172" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I172" s="51"/>
+      <c r="I172" s="44"/>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" s="20">
@@ -7027,7 +7030,7 @@
       <c r="H173" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I173" s="51"/>
+      <c r="I173" s="44"/>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" s="20">
@@ -7055,7 +7058,7 @@
       <c r="H174" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I174" s="51"/>
+      <c r="I174" s="44"/>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" s="20">
@@ -7083,7 +7086,7 @@
       <c r="H175" s="37">
         <v>19</v>
       </c>
-      <c r="I175" s="51"/>
+      <c r="I175" s="44"/>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" s="20">
@@ -7111,7 +7114,7 @@
       <c r="H176" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I176" s="51"/>
+      <c r="I176" s="44"/>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" s="20">
@@ -7139,7 +7142,7 @@
       <c r="H177" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I177" s="51"/>
+      <c r="I177" s="44"/>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" s="20">
@@ -7167,7 +7170,7 @@
       <c r="H178" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I178" s="51"/>
+      <c r="I178" s="44"/>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" s="20">
@@ -7195,7 +7198,7 @@
       <c r="H179" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I179" s="51"/>
+      <c r="I179" s="44"/>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" s="20">
@@ -7223,7 +7226,7 @@
       <c r="H180" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I180" s="51"/>
+      <c r="I180" s="44"/>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" s="20">
@@ -7251,7 +7254,7 @@
       <c r="H181" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I181" s="51"/>
+      <c r="I181" s="44"/>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" s="20">
@@ -7279,7 +7282,7 @@
       <c r="H182" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I182" s="51"/>
+      <c r="I182" s="44"/>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" s="20">
@@ -7307,7 +7310,7 @@
       <c r="H183" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I183" s="51"/>
+      <c r="I183" s="44"/>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" s="20">
@@ -7335,7 +7338,7 @@
       <c r="H184" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I184" s="51"/>
+      <c r="I184" s="44"/>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" s="20">
@@ -7363,7 +7366,7 @@
       <c r="H185" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I185" s="51"/>
+      <c r="I185" s="44"/>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" s="20">
@@ -7391,7 +7394,7 @@
       <c r="H186" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I186" s="51"/>
+      <c r="I186" s="44"/>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" s="20">
@@ -7419,7 +7422,7 @@
       <c r="H187" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I187" s="51"/>
+      <c r="I187" s="44"/>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" s="20">
@@ -7447,7 +7450,7 @@
       <c r="H188" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I188" s="51"/>
+      <c r="I188" s="44"/>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" s="20">
@@ -7475,7 +7478,7 @@
       <c r="H189" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I189" s="51"/>
+      <c r="I189" s="44"/>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" s="20">
@@ -7503,7 +7506,7 @@
       <c r="H190" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I190" s="51"/>
+      <c r="I190" s="44"/>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" s="20">
@@ -7531,7 +7534,7 @@
       <c r="H191" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I191" s="51"/>
+      <c r="I191" s="44"/>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" s="20">
@@ -7559,7 +7562,7 @@
       <c r="H192" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I192" s="51"/>
+      <c r="I192" s="44"/>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" s="20">
@@ -7587,7 +7590,7 @@
       <c r="H193" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I193" s="51"/>
+      <c r="I193" s="44"/>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" s="20">
@@ -7615,7 +7618,7 @@
       <c r="H194" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I194" s="51"/>
+      <c r="I194" s="44"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" s="20">
@@ -7643,7 +7646,7 @@
       <c r="H195" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I195" s="51"/>
+      <c r="I195" s="44"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" s="20">
@@ -7671,7 +7674,7 @@
       <c r="H196" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I196" s="51"/>
+      <c r="I196" s="44"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" s="20">
@@ -7699,7 +7702,7 @@
       <c r="H197" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I197" s="51"/>
+      <c r="I197" s="44"/>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" s="20">
@@ -7727,7 +7730,7 @@
       <c r="H198" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I198" s="51"/>
+      <c r="I198" s="44"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" s="20">
@@ -7755,7 +7758,7 @@
       <c r="H199" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I199" s="51"/>
+      <c r="I199" s="44"/>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" s="20">
@@ -7783,7 +7786,7 @@
       <c r="H200" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I200" s="51"/>
+      <c r="I200" s="44"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" s="20">
@@ -7811,7 +7814,7 @@
       <c r="H201" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I201" s="51"/>
+      <c r="I201" s="44"/>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" s="20">
@@ -7839,7 +7842,7 @@
       <c r="H202" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I202" s="51"/>
+      <c r="I202" s="44"/>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" s="20">
@@ -7867,7 +7870,7 @@
       <c r="H203" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I203" s="51"/>
+      <c r="I203" s="44"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" s="20">
@@ -7895,7 +7898,7 @@
       <c r="H204" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I204" s="51"/>
+      <c r="I204" s="44"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" s="20">
@@ -7923,7 +7926,7 @@
       <c r="H205" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I205" s="51"/>
+      <c r="I205" s="44"/>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" s="20">
@@ -7951,7 +7954,7 @@
       <c r="H206" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I206" s="51"/>
+      <c r="I206" s="44"/>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" s="20">
@@ -7979,7 +7982,7 @@
       <c r="H207" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I207" s="51"/>
+      <c r="I207" s="44"/>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" s="20">
@@ -8007,7 +8010,7 @@
       <c r="H208" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I208" s="51"/>
+      <c r="I208" s="44"/>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" s="20">
@@ -8035,7 +8038,7 @@
       <c r="H209" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I209" s="51"/>
+      <c r="I209" s="44"/>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" s="20">
@@ -8063,7 +8066,7 @@
       <c r="H210" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I210" s="51"/>
+      <c r="I210" s="44"/>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" s="20">
@@ -8091,7 +8094,7 @@
       <c r="H211" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I211" s="51"/>
+      <c r="I211" s="44"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" s="20">
@@ -8119,7 +8122,7 @@
       <c r="H212" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I212" s="51"/>
+      <c r="I212" s="44"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" s="20">
@@ -8147,7 +8150,7 @@
       <c r="H213" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I213" s="51"/>
+      <c r="I213" s="44"/>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" s="20">
@@ -8175,7 +8178,7 @@
       <c r="H214" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I214" s="51"/>
+      <c r="I214" s="44"/>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" s="20">
@@ -8203,7 +8206,7 @@
       <c r="H215" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I215" s="51"/>
+      <c r="I215" s="44"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" s="20">
@@ -8231,7 +8234,7 @@
       <c r="H216" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I216" s="51"/>
+      <c r="I216" s="44"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" s="20">
@@ -8259,7 +8262,7 @@
       <c r="H217" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I217" s="51"/>
+      <c r="I217" s="44"/>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" s="20">
@@ -8287,7 +8290,7 @@
       <c r="H218" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I218" s="51"/>
+      <c r="I218" s="44"/>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" s="20">
@@ -8315,7 +8318,7 @@
       <c r="H219" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I219" s="51"/>
+      <c r="I219" s="44"/>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" s="20">
@@ -8343,7 +8346,7 @@
       <c r="H220" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I220" s="51"/>
+      <c r="I220" s="44"/>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" s="20">
@@ -8371,7 +8374,7 @@
       <c r="H221" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I221" s="51"/>
+      <c r="I221" s="44"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" s="20">
@@ -8399,7 +8402,7 @@
       <c r="H222" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I222" s="51"/>
+      <c r="I222" s="44"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" s="20">
@@ -8427,7 +8430,7 @@
       <c r="H223" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I223" s="51"/>
+      <c r="I223" s="44"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" s="20">
@@ -8455,7 +8458,7 @@
       <c r="H224" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I224" s="51"/>
+      <c r="I224" s="44"/>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" s="20">
@@ -8483,7 +8486,7 @@
       <c r="H225" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I225" s="51"/>
+      <c r="I225" s="44"/>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" s="20">
@@ -8511,7 +8514,7 @@
       <c r="H226" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I226" s="51"/>
+      <c r="I226" s="44"/>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" s="20">
@@ -8539,7 +8542,7 @@
       <c r="H227" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I227" s="51"/>
+      <c r="I227" s="44"/>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" s="20">
@@ -8567,7 +8570,7 @@
       <c r="H228" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I228" s="51"/>
+      <c r="I228" s="44"/>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" s="20">
@@ -8595,7 +8598,7 @@
       <c r="H229" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I229" s="51"/>
+      <c r="I229" s="44"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" s="20">
@@ -8623,7 +8626,7 @@
       <c r="H230" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I230" s="51"/>
+      <c r="I230" s="44"/>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" s="20">
@@ -8651,7 +8654,7 @@
       <c r="H231" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I231" s="51"/>
+      <c r="I231" s="44"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" s="20">
@@ -8679,7 +8682,7 @@
       <c r="H232" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I232" s="51"/>
+      <c r="I232" s="44"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" s="20">
@@ -8707,7 +8710,7 @@
       <c r="H233" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I233" s="51"/>
+      <c r="I233" s="44"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" s="20">
@@ -8735,7 +8738,7 @@
       <c r="H234" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I234" s="51"/>
+      <c r="I234" s="44"/>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" s="20">
@@ -8763,7 +8766,7 @@
       <c r="H235" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I235" s="51"/>
+      <c r="I235" s="44"/>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" s="20">
@@ -8791,7 +8794,7 @@
       <c r="H236" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I236" s="51"/>
+      <c r="I236" s="44"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" s="20">
@@ -8819,7 +8822,7 @@
       <c r="H237" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I237" s="51"/>
+      <c r="I237" s="44"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" s="20">
@@ -8847,7 +8850,7 @@
       <c r="H238" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I238" s="51"/>
+      <c r="I238" s="44"/>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" s="20">
@@ -8875,7 +8878,7 @@
       <c r="H239" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I239" s="51"/>
+      <c r="I239" s="44"/>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" s="20">
@@ -8903,7 +8906,7 @@
       <c r="H240" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I240" s="51"/>
+      <c r="I240" s="44"/>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" s="20">
@@ -8931,7 +8934,7 @@
       <c r="H241" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I241" s="51"/>
+      <c r="I241" s="44"/>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" s="20">
@@ -8959,7 +8962,7 @@
       <c r="H242" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I242" s="51"/>
+      <c r="I242" s="44"/>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" s="20">
@@ -8987,7 +8990,7 @@
       <c r="H243" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I243" s="51"/>
+      <c r="I243" s="44"/>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" s="20">
@@ -9015,7 +9018,7 @@
       <c r="H244" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I244" s="51"/>
+      <c r="I244" s="44"/>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" s="20">
@@ -9043,7 +9046,7 @@
       <c r="H245" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I245" s="51"/>
+      <c r="I245" s="44"/>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" s="20">
@@ -9071,7 +9074,7 @@
       <c r="H246" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I246" s="51"/>
+      <c r="I246" s="44"/>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" s="20">
@@ -9099,7 +9102,7 @@
       <c r="H247" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I247" s="51"/>
+      <c r="I247" s="44"/>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" s="20">
@@ -9127,7 +9130,7 @@
       <c r="H248" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I248" s="51"/>
+      <c r="I248" s="44"/>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" s="20">
@@ -9155,7 +9158,7 @@
       <c r="H249" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I249" s="51"/>
+      <c r="I249" s="44"/>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" s="20">
@@ -9183,7 +9186,7 @@
       <c r="H250" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I250" s="51"/>
+      <c r="I250" s="44"/>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" s="20">
@@ -9211,7 +9214,7 @@
       <c r="H251" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I251" s="51"/>
+      <c r="I251" s="44"/>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" s="20">
@@ -9239,7 +9242,7 @@
       <c r="H252" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I252" s="51"/>
+      <c r="I252" s="44"/>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" s="20">
@@ -9267,7 +9270,7 @@
       <c r="H253" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I253" s="51"/>
+      <c r="I253" s="44"/>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" s="20">
@@ -9295,7 +9298,7 @@
       <c r="H254" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I254" s="51"/>
+      <c r="I254" s="44"/>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" s="20">
@@ -9323,7 +9326,7 @@
       <c r="H255" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I255" s="51"/>
+      <c r="I255" s="44"/>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" s="20">
@@ -9351,7 +9354,7 @@
       <c r="H256" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I256" s="51"/>
+      <c r="I256" s="44"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" s="20">
@@ -9379,7 +9382,7 @@
       <c r="H257" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I257" s="51"/>
+      <c r="I257" s="44"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" s="20">
@@ -9407,7 +9410,7 @@
       <c r="H258" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I258" s="51"/>
+      <c r="I258" s="44"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" s="20">
@@ -9435,7 +9438,7 @@
       <c r="H259" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I259" s="51"/>
+      <c r="I259" s="44"/>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" s="20">
@@ -9463,7 +9466,7 @@
       <c r="H260" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I260" s="51"/>
+      <c r="I260" s="44"/>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" s="20">
@@ -9491,7 +9494,7 @@
       <c r="H261" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I261" s="51"/>
+      <c r="I261" s="44"/>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" s="20">
@@ -9519,7 +9522,7 @@
       <c r="H262" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I262" s="51"/>
+      <c r="I262" s="44"/>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" s="20">
@@ -9547,7 +9550,7 @@
       <c r="H263" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="I263" s="51"/>
+      <c r="I263" s="44"/>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" s="20">
@@ -9575,7 +9578,7 @@
       <c r="H264" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I264" s="48" t="s">
+      <c r="I264" s="41" t="s">
         <v>135</v>
       </c>
     </row>
@@ -9605,7 +9608,7 @@
       <c r="H265" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I265" s="49"/>
+      <c r="I265" s="42"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" s="20">
@@ -9633,7 +9636,7 @@
       <c r="H266" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I266" s="49"/>
+      <c r="I266" s="42"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" s="20">
@@ -9661,7 +9664,7 @@
       <c r="H267" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I267" s="49"/>
+      <c r="I267" s="42"/>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" s="20">
@@ -9689,7 +9692,7 @@
       <c r="H268" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I268" s="49"/>
+      <c r="I268" s="42"/>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" s="20">
@@ -9717,7 +9720,7 @@
       <c r="H269" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I269" s="49"/>
+      <c r="I269" s="42"/>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" s="20">
@@ -9745,7 +9748,7 @@
       <c r="H270" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I270" s="49"/>
+      <c r="I270" s="42"/>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" s="20">
@@ -9773,7 +9776,7 @@
       <c r="H271" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I271" s="49"/>
+      <c r="I271" s="42"/>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" s="20">
@@ -9801,7 +9804,7 @@
       <c r="H272" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I272" s="49"/>
+      <c r="I272" s="42"/>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" s="20">
@@ -9829,7 +9832,7 @@
       <c r="H273" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I273" s="49"/>
+      <c r="I273" s="42"/>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" s="20">
@@ -9857,7 +9860,7 @@
       <c r="H274" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I274" s="49"/>
+      <c r="I274" s="42"/>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" s="20">
@@ -9885,7 +9888,7 @@
       <c r="H275" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I275" s="49"/>
+      <c r="I275" s="42"/>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" s="20">
@@ -9913,7 +9916,7 @@
       <c r="H276" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I276" s="49"/>
+      <c r="I276" s="42"/>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" s="20">
@@ -9941,7 +9944,7 @@
       <c r="H277" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I277" s="49"/>
+      <c r="I277" s="42"/>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" s="20">
@@ -9969,7 +9972,7 @@
       <c r="H278" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I278" s="49"/>
+      <c r="I278" s="42"/>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" s="20">
@@ -9997,7 +10000,7 @@
       <c r="H279" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I279" s="49"/>
+      <c r="I279" s="42"/>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" s="20">
@@ -10025,7 +10028,7 @@
       <c r="H280" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I280" s="50"/>
+      <c r="I280" s="43"/>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" s="20">
@@ -10053,7 +10056,7 @@
       <c r="H281" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I281" s="48" t="s">
+      <c r="I281" s="41" t="s">
         <v>489</v>
       </c>
     </row>
@@ -10083,7 +10086,7 @@
       <c r="H282" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I282" s="49"/>
+      <c r="I282" s="42"/>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" s="20">
@@ -10111,16 +10114,11 @@
       <c r="H283" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="I283" s="50"/>
+      <c r="I283" s="43"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:I283" xr:uid="{EA38E6D3-4B1B-4EC1-B526-C43A5318BCE1}"/>
   <mergeCells count="12">
-    <mergeCell ref="I92:I128"/>
-    <mergeCell ref="I281:I283"/>
-    <mergeCell ref="I264:I280"/>
-    <mergeCell ref="I152:I263"/>
-    <mergeCell ref="I129:I151"/>
     <mergeCell ref="I78:I91"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="I51:I59"/>
@@ -10128,6 +10126,11 @@
     <mergeCell ref="I3:I22"/>
     <mergeCell ref="I23:I41"/>
     <mergeCell ref="I42:I50"/>
+    <mergeCell ref="I92:I128"/>
+    <mergeCell ref="I281:I283"/>
+    <mergeCell ref="I264:I280"/>
+    <mergeCell ref="I152:I263"/>
+    <mergeCell ref="I129:I151"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
